--- a/data/master/retirement.xlsx
+++ b/data/master/retirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="14" activeTab="26"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -34,13 +34,25 @@
     <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
     <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
     <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
+    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId38"/>
+    <sheet sheetId="36" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
+    <sheet sheetId="38" name="Sheet38" state="visible" r:id="rId41"/>
+    <sheet sheetId="39" name="Sheet39" state="visible" r:id="rId42"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="73">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -126,16 +138,22 @@
     <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>8,873</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
-  </si>
-  <si>
-    <t>["TOTAL CALLS RECEIVED","32,888"]</t>
+    <t>Retirements Detail Report</t>
+  </si>
+  <si>
+    <t>["Retirement Age","Number of Active Members","Number of Deferred Members"]</t>
+  </si>
+  <si>
+    <t>["60","54","38","61","20","8","62","23","10","63","21","10","64","16","11","65","2,764","1,318","66","540","55","67","86","23","68","33","12","69","15","9","70","261","257","71","30","16","72","18","8","73","5","5","74","12","4","75","19","9","76","5","2"]</t>
+  </si>
+  <si>
+    <t>Retirement Detail Total</t>
+  </si>
+  <si>
+    <t>["","3,36","1,817"]</t>
+  </si>
+  <si>
+    <t>["","3,936","1,817"]</t>
   </si>
   <si>
     <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
@@ -147,9 +165,6 @@
     <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>["Retirement Age","Number of Active Members","Number of Deferred Members"]</t>
-  </si>
-  <si>
     <t>["60","20","29","61","1","0","62","3","2","63","2","1","64","0","1","65","81","140","66","12","4","67","3","1","68","2","0","70","0","3","72","1","0"]</t>
   </si>
   <si>
@@ -162,6 +177,21 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
+    <t>229,424</t>
+  </si>
+  <si>
+    <t>["60","11","2","61","1","0","62","2","0","64","1","4","65","2,094","1,073","66","40","5","67","4","0","68","6","3","70","23","42","71","7","4","72","1","0","73","6","1","75","3","6","77","0","2"]</t>
+  </si>
+  <si>
+    <t>["60","17","4","61","2","1","62","2","0","64","2","3","65","2,057","1,094","66","61","7","67","6","2","68","9","3","69","1","1","70","38","55","71","9","6","72","2","2","73","6","1"]</t>
+  </si>
+  <si>
+    <t>["","2,199","1,142"]</t>
+  </si>
+  <si>
+    <t>["","2,220","1,190"]</t>
+  </si>
+  <si>
     <t>SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -235,13 +265,19 @@
   </si>
   <si>
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -263,6 +299,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -278,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -321,6 +363,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -375,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,27 +458,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1089,14 +1272,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="22.15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1287,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1119,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1131,11 +1314,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1147,11 +1330,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1163,11 +1346,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1179,11 +1362,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1195,11 +1378,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1211,11 +1394,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1226,11 +1409,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1241,11 +1424,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1256,11 +1439,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -1291,20 +1474,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1319,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1329,11 +1512,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1343,11 +1526,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1357,11 +1540,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1371,11 +1554,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1385,11 +1568,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1399,11 +1582,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1411,11 +1594,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1423,11 +1606,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1435,11 +1618,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -1448,12 +1631,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1470,20 +1653,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1498,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1508,11 +1691,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1522,11 +1705,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1536,11 +1719,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1550,11 +1733,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1564,11 +1747,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1578,11 +1761,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1590,11 +1773,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1602,11 +1785,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1614,11 +1797,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -1627,12 +1810,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1649,20 +1832,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1677,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1687,11 +1870,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1701,11 +1884,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1715,11 +1898,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1729,11 +1912,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1743,11 +1926,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1757,11 +1940,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1769,11 +1952,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1781,11 +1964,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1793,11 +1976,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -1806,12 +1989,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1828,20 +2011,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1856,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1866,11 +2049,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1880,11 +2063,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1894,11 +2077,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1908,11 +2091,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1922,11 +2105,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1936,11 +2119,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1948,11 +2131,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1960,11 +2143,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1972,11 +2155,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -1985,12 +2168,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2007,20 +2190,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2035,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2045,11 +2228,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2059,11 +2242,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,11 +2256,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2087,11 +2270,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2101,11 +2284,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2115,11 +2298,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2127,11 +2310,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -2139,11 +2322,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -2151,11 +2334,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2164,12 +2347,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2186,20 +2369,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2214,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2224,11 +2407,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2238,11 +2421,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2252,11 +2435,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2266,11 +2449,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2280,11 +2463,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2294,11 +2477,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2306,11 +2489,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -2318,11 +2501,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -2330,11 +2513,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2343,12 +2526,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2365,20 +2548,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2393,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2403,11 +2586,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2417,11 +2600,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2431,11 +2614,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2445,11 +2628,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2459,11 +2642,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2473,11 +2656,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2485,11 +2668,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -2497,11 +2680,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -2509,11 +2692,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2522,12 +2705,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2540,24 +2723,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="29.62890625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2572,127 +2753,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>45</v>
+      </c>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>184</v>
+      </c>
       <c r="D4" s="8">
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>210</v>
+      </c>
       <c r="D5" s="8">
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>271</v>
+      </c>
       <c r="D6" s="8">
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>302</v>
+      </c>
       <c r="D7" s="8">
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>1021</v>
+      </c>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
       <c r="D9" s="8">
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" s="8">
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="C11">
+        <v>51</v>
+      </c>
       <c r="D11" s="8">
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2701,12 +2903,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2723,20 +2925,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2751,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2761,11 +2963,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2775,11 +2977,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2789,11 +2991,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2803,11 +3005,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2817,11 +3019,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -2831,11 +3033,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2843,11 +3045,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -2855,11 +3057,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -2867,11 +3069,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -2880,12 +3082,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2902,20 +3104,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2930,55 +3132,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="8">
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8">
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2988,11 +3190,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3002,11 +3204,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3016,11 +3218,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3028,11 +3230,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3040,11 +3242,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3052,11 +3254,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3065,12 +3267,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3087,11 +3289,11 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="29.3671875" customWidth="1"/>
-    <col min="3" max="3" width="70.15625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,7 +3304,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3117,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3129,11 +3331,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3145,11 +3347,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3161,11 +3363,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3175,11 +3377,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3189,11 +3391,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3203,11 +3405,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3215,11 +3417,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3227,11 +3429,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3239,11 +3441,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3274,20 +3476,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3302,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3312,11 +3514,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3326,11 +3528,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3340,11 +3542,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3354,11 +3556,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3368,11 +3570,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3382,11 +3584,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3394,11 +3596,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3406,11 +3608,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3418,11 +3620,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3431,12 +3633,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3453,20 +3655,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3481,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3491,11 +3693,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3505,11 +3707,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3519,11 +3721,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3533,11 +3735,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3547,29 +3749,29 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="e">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3577,11 +3779,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3589,11 +3791,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3601,11 +3803,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3614,12 +3816,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3633,23 +3835,23 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3664,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3674,11 +3876,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3688,11 +3890,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3702,11 +3904,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3716,11 +3918,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3730,11 +3932,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3744,11 +3946,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3756,11 +3958,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3768,11 +3970,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3780,11 +3982,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3793,12 +3995,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3815,25 +4017,25 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3843,91 +4045,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8">
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8">
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8">
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="8">
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -3935,11 +4137,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -3947,11 +4149,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -3959,11 +4161,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -3972,12 +4174,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,20 +4196,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4022,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4032,11 +4234,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4046,11 +4248,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4060,11 +4262,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4074,11 +4276,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4088,11 +4290,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -4102,11 +4304,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4114,11 +4316,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -4126,11 +4328,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4138,11 +4340,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -4151,12 +4353,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4173,20 +4375,20 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4194,14 +4396,14 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4211,10 +4413,10 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4224,10 +4426,10 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4237,10 +4439,10 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4250,10 +4452,10 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4263,10 +4465,10 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -4276,10 +4478,10 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4287,10 +4489,10 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -4298,10 +4500,10 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4511,7 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4317,22 +4519,22 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D11">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4346,25 +4548,25 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>62</v>
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4379,7 +4581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4389,11 +4591,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4403,11 +4605,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4417,11 +4619,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4431,11 +4633,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4445,11 +4647,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -4459,11 +4661,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4473,11 +4675,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -4487,11 +4689,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4501,13 +4703,13 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4519,12 +4721,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4538,28 +4740,28 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4569,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4579,11 +4781,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4593,11 +4795,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4607,11 +4809,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4621,11 +4823,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -4635,11 +4837,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -4649,11 +4851,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4661,11 +4863,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -4673,11 +4875,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4685,11 +4887,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -4698,15 +4900,43 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -4714,27 +4944,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
-    <col min="2" max="2" width="32.3125" customWidth="1"/>
-    <col min="3" max="3" width="39.41796875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.9" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4749,152 +4980,598 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="3">
+        <v>360</v>
+      </c>
+      <c r="C3" s="3">
+        <v>367</v>
       </c>
       <c r="D3" s="6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="B4" s="3">
+        <v>20655</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20655</v>
       </c>
       <c r="D4" s="8">
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
+      <c r="B5" s="3">
+        <v>26523</v>
+      </c>
+      <c r="C5" s="3">
+        <v>26523</v>
       </c>
       <c r="D5" s="8">
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
+      <c r="B6" s="3">
+        <v>31691</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31691</v>
       </c>
       <c r="D6" s="8">
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>343196</v>
+      </c>
+      <c r="C7" s="3">
+        <v>343196</v>
+      </c>
       <c r="D7" s="8">
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="3">
+        <v>422436</v>
+      </c>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="B9">
+        <v>5753</v>
+      </c>
+      <c r="C9">
+        <v>5753</v>
+      </c>
       <c r="D9" s="8">
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>3936</v>
+      </c>
+      <c r="C10">
+        <v>3936</v>
+      </c>
       <c r="D10" s="8">
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1817</v>
+      </c>
+      <c r="C11">
+        <v>1817</v>
+      </c>
       <c r="D11" s="8">
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="13" t="str">
+        <f>IF(B12=C12,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" ht="73.15" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f>IF(B13=C13,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="str">
+        <f>IF(B14=C14,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8 D10:D11 D13:D14">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>370</v>
+      </c>
+      <c r="C3" s="3">
+        <v>338</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1615</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1601</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2655</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2631</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17758</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17758</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1866797</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25043</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13763</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7856</v>
+      </c>
+      <c r="C11" s="3">
+        <v>338</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -4908,20 +5585,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.734375" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4936,7 +5613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4946,11 +5623,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4960,11 +5637,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4974,11 +5651,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4988,11 +5665,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5002,11 +5679,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -5016,11 +5693,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -5028,11 +5705,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5040,11 +5717,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -5052,11 +5729,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -5065,12 +5742,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5087,21 +5764,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5116,7 +5793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5126,11 +5803,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5140,11 +5817,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5154,11 +5831,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5168,11 +5845,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5182,11 +5859,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -5196,11 +5873,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -5208,11 +5885,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5220,11 +5897,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -5232,11 +5909,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -5245,12 +5922,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5264,23 +5941,23 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.5234375" customWidth="1"/>
-    <col min="2" max="3" width="35.62890625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5295,11 +5972,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>22</v>
+      </c>
       <c r="C3" s="3">
         <v>22</v>
       </c>
@@ -5307,15 +5986,17 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>1435</v>
+      </c>
       <c r="C4" s="3">
         <v>1435</v>
       </c>
@@ -5323,15 +6004,17 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>1857</v>
+      </c>
       <c r="C5" s="3">
         <v>1857</v>
       </c>
@@ -5339,15 +6022,17 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>2558</v>
+      </c>
       <c r="C6" s="3">
         <v>2558</v>
       </c>
@@ -5355,15 +6040,17 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>60997</v>
+      </c>
       <c r="C7" s="3">
         <v>60997</v>
       </c>
@@ -5371,15 +6058,17 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>66871</v>
+      </c>
       <c r="C8" s="3">
         <v>66871</v>
       </c>
@@ -5387,14 +6076,17 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="B9">
+        <v>306</v>
+      </c>
       <c r="C9">
         <v>306</v>
       </c>
@@ -5402,14 +6094,17 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>125</v>
+      </c>
       <c r="C10">
         <v>125</v>
       </c>
@@ -5417,14 +6112,17 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>181</v>
+      </c>
       <c r="C11">
         <v>181</v>
       </c>
@@ -5432,25 +6130,51 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="str">
+        <f>IF(B12=C12,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f>IF(B13=C13,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f>IF(B14=C14,"PASS","FAIL")</f>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
@@ -5458,12 +6182,42 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5480,20 +6234,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5508,7 +6262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5518,11 +6272,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5532,11 +6286,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5546,11 +6300,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5560,11 +6314,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5574,11 +6328,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -5588,11 +6342,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -5600,11 +6354,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5612,11 +6366,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -5624,11 +6378,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -5637,12 +6391,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5653,26 +6407,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5687,141 +6442,205 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>2744</v>
+      </c>
+      <c r="C3">
+        <v>2580</v>
+      </c>
       <c r="D3" s="6">
         <v>0.05</v>
       </c>
-      <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D3))&gt;=B3,(#REF!-(#REF!*D3))&lt;=B3),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>13560</v>
+      </c>
+      <c r="C4">
+        <v>13540</v>
+      </c>
       <c r="D4" s="8">
         <v>0.05</v>
       </c>
-      <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D4))&gt;=B4,(#REF!-(#REF!*D4))&lt;=B4),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>15039</v>
+      </c>
+      <c r="C5">
+        <v>15072</v>
+      </c>
       <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D5))&gt;=B5,(#REF!-(#REF!*D5))&lt;=B5),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>17956</v>
+      </c>
+      <c r="C6">
+        <v>17901</v>
+      </c>
       <c r="D6" s="8">
         <v>0.05</v>
       </c>
-      <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D6))&gt;=B6,(#REF!-(#REF!*D6))&lt;=B6),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>180437</v>
+      </c>
+      <c r="C7">
+        <v>180274</v>
+      </c>
       <c r="D7" s="8">
         <v>0.05</v>
       </c>
-      <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D7))&gt;=B7,(#REF!-(#REF!*D7))&lt;=B7),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="19">
+        <v>229788</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D8))&gt;=B8,(#REF!-(#REF!*D8))&lt;=B8),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="B9">
+        <v>3391</v>
+      </c>
+      <c r="C9">
+        <v>3410</v>
+      </c>
       <c r="D9" s="8">
         <v>0.05</v>
       </c>
-      <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D9))&gt;=B9,(#REF!-(#REF!*D9))&lt;=B9),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>2212</v>
+      </c>
+      <c r="C10">
+        <v>2220</v>
+      </c>
       <c r="D10" s="8">
         <v>0.05</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D10))&gt;=B10,(#REF!-(#REF!*D10))&lt;=B10),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1179</v>
+      </c>
+      <c r="C11">
+        <v>1190</v>
+      </c>
       <c r="D11" s="8">
         <v>0.05</v>
       </c>
-      <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="e">
+        <f>IF(AND((#REF!+(#REF!*D11))&gt;=B11,(#REF!-(#REF!*D11))&lt;=B11),"PASS","FAIL")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5838,21 +6657,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="14.7890625" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5867,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -5877,11 +6696,11 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E11" si="0">IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5891,11 +6710,11 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5905,11 +6724,11 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -5919,11 +6738,11 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(AND((B6+(B6*D6))&gt;=C6,(B6-(B6*D6))&lt;=C6),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5933,11 +6752,11 @@
         <v>0.05</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(AND((B7+(B7*D7))&gt;=C7,(B7-(B7*D7))&lt;=C7),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -5947,11 +6766,11 @@
         <v>0.05</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(AND((B8+(B8*D8))&gt;=C8,(B8-(B8*D8))&lt;=C8),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -5959,11 +6778,11 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(AND((B9+(B9*D9))&gt;=C9,(B9-(B9*D9))&lt;=C9),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5971,11 +6790,11 @@
         <v>0.05</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(AND((B10+(B10*D10))&gt;=C10,(B10-(B10*D10))&lt;=C10),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -5983,11 +6802,11 @@
         <v>0.05</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>IF(AND((B11+(B11*D11))&gt;=C11,(B11-(B11*D11))&lt;=C11),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -5996,12 +6815,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8 D10:D11">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
